--- a/assets uarm/chronomathesis2019b.xlsx
+++ b/assets uarm/chronomathesis2019b.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Semana</t>
   </si>
@@ -137,6 +137,57 @@
   </si>
   <si>
     <t>griegos</t>
+  </si>
+  <si>
+    <t>critica a platon, Marias</t>
+  </si>
+  <si>
+    <t>libro1y2</t>
+  </si>
+  <si>
+    <t>diogenes, helenismo</t>
+  </si>
+  <si>
+    <t>laplace y leibniz</t>
+  </si>
+  <si>
+    <t>crp, limites razon</t>
+  </si>
+  <si>
+    <t>esfera publica</t>
+  </si>
+  <si>
+    <t>libertad de los mod</t>
+  </si>
+  <si>
+    <t>witgnstn</t>
+  </si>
+  <si>
+    <t>fenom</t>
+  </si>
+  <si>
+    <t>leib</t>
+  </si>
+  <si>
+    <t>mirc. Eliade</t>
+  </si>
+  <si>
+    <t>ctrl?</t>
+  </si>
+  <si>
+    <t>spinoza?</t>
+  </si>
+  <si>
+    <t>H.U.S.C. - fmc</t>
+  </si>
+  <si>
+    <t>medieval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot, anselmo, agus, desc, </t>
+  </si>
+  <si>
+    <t>mcIntyre</t>
   </si>
 </sst>
 </file>
@@ -175,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,44 +253,18 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -253,16 +278,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -568,10 +588,12 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -588,15 +610,16 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -612,16 +635,19 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -634,18 +660,21 @@
       <c r="D3" s="2">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -661,17 +690,20 @@
       <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -688,14 +720,19 @@
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -711,15 +748,18 @@
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -732,18 +772,21 @@
       <c r="D7" s="2">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -756,16 +799,21 @@
       <c r="D8" s="2">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="F8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -778,14 +826,15 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -799,18 +848,23 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" t="s">
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -826,15 +880,18 @@
       <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -851,14 +908,17 @@
         <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -871,18 +931,19 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -898,15 +959,16 @@
       <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -922,15 +984,18 @@
       <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -947,12 +1012,17 @@
         <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -965,16 +1035,19 @@
       <c r="D17" s="2">
         <v>29</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1"/>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -987,14 +1060,15 @@
       <c r="D18" s="2">
         <v>6</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1011,8 +1085,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1029,11 +1104,12 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets uarm/chronomathesis2019b.xlsx
+++ b/assets uarm/chronomathesis2019b.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="12720" windowHeight="5895"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="12720" windowHeight="5895" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="agend" sheetId="1" r:id="rId1"/>
+    <sheet name="dias" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Semana</t>
   </si>
@@ -145,9 +145,6 @@
     <t>libro1y2</t>
   </si>
   <si>
-    <t>diogenes, helenismo</t>
-  </si>
-  <si>
     <t>laplace y leibniz</t>
   </si>
   <si>
@@ -188,6 +185,42 @@
   </si>
   <si>
     <t>mcIntyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diogenes, helenismo, </t>
+  </si>
+  <si>
+    <t>teogonía, homero/McIntyre?</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>miércoles</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>P. I. H.</t>
+  </si>
+  <si>
+    <t>7:20 - 9:00</t>
+  </si>
+  <si>
+    <t>13:00 - 14:20</t>
+  </si>
+  <si>
+    <t>PENS C</t>
   </si>
 </sst>
 </file>
@@ -579,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -635,12 +668,14 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
@@ -664,7 +699,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
@@ -720,13 +755,13 @@
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
@@ -780,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
@@ -800,17 +835,17 @@
         <v>27</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -851,13 +886,13 @@
         <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" t="s">
@@ -881,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>13</v>
@@ -908,7 +943,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
@@ -985,7 +1020,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>13</v>
@@ -1012,14 +1047,14 @@
         <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1044,7 +1079,7 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1118,12 +1153,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/assets uarm/chronomathesis2019b.xlsx
+++ b/assets uarm/chronomathesis2019b.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>Semana</t>
   </si>
@@ -211,9 +211,6 @@
     <t>sábado</t>
   </si>
   <si>
-    <t>P. I. H.</t>
-  </si>
-  <si>
     <t>7:20 - 9:00</t>
   </si>
   <si>
@@ -221,6 +218,21 @@
   </si>
   <si>
     <t>PENS C</t>
+  </si>
+  <si>
+    <t>justiciaFilPol</t>
+  </si>
+  <si>
+    <t>11:00 - 12:40</t>
+  </si>
+  <si>
+    <t>09:10 - 10:50</t>
+  </si>
+  <si>
+    <t>Soledad</t>
+  </si>
+  <si>
+    <t>Fil Rel?</t>
   </si>
 </sst>
 </file>
@@ -251,15 +263,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -293,11 +311,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -316,6 +414,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,52 +1268,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:7">
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
         <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+    </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="F11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="25">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="20" t="s">
         <v>67</v>
       </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="25">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="25">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="25">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A18" s="26">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
